--- a/Stats/Stats.xlsx
+++ b/Stats/Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\OneDrive\School\Masters\Rowan Year 1 (2018-2019)\Spring 2019\Data Warehousing\DataWarehousingHW1\Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7B227FF9-2816-44A7-9977-4BB74AC64DA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C95E9B2F-05BE-4F24-86E3-91E4E9426310}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{7B227FF9-2816-44A7-9977-4BB74AC64DA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{17458C29-9AD3-4AEA-B5EC-581DF31ED841}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32910" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>866.40549999999996</v>
+        <v>866.41099999999994</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>452.20549999999997</v>
+        <v>451.64929999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="9">
-        <v>246.75890000000001</v>
+        <v>247.2055</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="9">
-        <v>207.42740000000001</v>
+        <v>207.51230000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="9">
-        <v>618.58360000000005</v>
+        <v>619.17809999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="9">
-        <v>123.6986</v>
+        <v>122.57259999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="9">
-        <v>167.32599999999999</v>
+        <v>166.8219</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="11">
-        <v>38304.46</v>
+        <v>38255.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
